--- a/mdToXlsx/Status Migrazione.xlsx
+++ b/mdToXlsx/Status Migrazione.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntonioSansonne\PycharmProjects\DocxFromPumlAndMd\mdToXlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D48D7E3-24C2-4B2F-BE70-3ECF779300BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_DE7C30B9C1CE21556940475BF5A2803D0046B159" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7341942C-3403-416B-994D-BEA9A3C46774}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +15,9 @@
     <sheet name="Templates" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wave 1'!$A$1:$M$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Merge e Deploy QA Wave 2'!$A$1:$M$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Templates!$A$1:$E$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wave 1'!$A$1:$M$32</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="581">
   <si>
     <t>Code</t>
   </si>
@@ -1362,18 +1357,24 @@
     <t>Non è stato importato il file ms_datagovernance.json dal template poiché faceva fallire la build nella fase platform update</t>
   </si>
   <si>
+    <t>Deploy avvenuto con successo
+Il servizio (come in precedenza) occupa circa il 150% della memoria</t>
+  </si>
+  <si>
     <t>20/11/2025: Bamboo non risponde non posso far partire la build
 03/12/2025: Forbidden 403</t>
   </si>
   <si>
     <t>La migrazione è stata completata ma il file build_script.sh deve divergere dal template perché ha l'insallazione di Java 11 rispetto alla Java 21 prevista dal template stesso.
-Per ora è stato solo committato perché ci sono delle build in coda</t>
+Per ora è stato solo committato perché ci sono delle build in coda
+Il tema di sviluppo ha preso in carico la migrazione del servizio</t>
   </si>
   <si>
     <t>Aspettare il team di sviluppo per ripetere la build</t>
   </si>
   <si>
-    <t>In corso di sviluppo da parte del team di progetto</t>
+    <t>In corso di sviluppo da parte del team di progetto
+Il tema di sviluppo ha preso in carico la migrazione del servizio</t>
   </si>
   <si>
     <t>Francesca</t>
@@ -1451,6 +1452,9 @@
     <t>Note</t>
   </si>
   <si>
+    <t>Link Deploy Qa</t>
+  </si>
+  <si>
     <t>-----------</t>
   </si>
   <si>
@@ -1475,6 +1479,9 @@
     <t>--------------------------------------------------------------------------</t>
   </si>
   <si>
+    <t>----------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
     <t>master</t>
   </si>
   <si>
@@ -1493,6 +1500,9 @@
     <t>Da controllare se ci sono conflitti dal branch di sviluppo attuale</t>
   </si>
   <si>
+    <t>--------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
     <t>[ ]</t>
   </si>
   <si>
@@ -1511,7 +1521,10 @@
     <t>74eba688e6952efd130de69e70f0bf9e62d26acb</t>
   </si>
   <si>
-    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTBP00182DEVBOGMIAPPLANCUSTOMV1-39</t>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTBP00182DEVBOGMIAPPLANCUSTOMV1-40</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/deploy/viewDeploymentResult.action?deploymentResultId=1910576778</t>
   </si>
   <si>
     <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-bp00195-lan-bottoperations/browse</t>
@@ -1544,6 +1557,9 @@
     <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTBP00212DEVBOINSTRMNTMGMTAPPLANCUSTOMV1-158</t>
   </si>
   <si>
+    <t>https://bamboo.springlab.enel.com/deploy/viewDeploymentResult.action?deploymentResultId=1910576920</t>
+  </si>
+  <si>
     <t>-----</t>
   </si>
   <si>
@@ -1592,7 +1608,10 @@
     <t>af56d2698e3722ef718fac8e33237685facfc590</t>
   </si>
   <si>
-    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00443DEVMEGMILOGICAPPLANCUSTOMV1-TES-84</t>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00443DEVMEGMILOGICAPPLANCUSTOMV1-TES-86</t>
+  </si>
+  <si>
+    <t>Ci sono problemi con aws. Restituisce 403 Forbidden</t>
   </si>
   <si>
     <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00489-lan-meargosintegration/browse</t>
@@ -1604,13 +1623,19 @@
     <t>4c495710bbbeb4e78131a57f0c58ef1404bbb546</t>
   </si>
   <si>
-    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00482DEVMEINSTRUMENTATIONAPPLANCUSTOMV1-424</t>
+    <t>https://bamboo.springlab.enel.com/browse/GLGTAP35622MSPLATFORM-GLGTMP00482DEVMEINSTRUMENTATIONAPPLANCUSTOMV1-425</t>
+  </si>
+  <si>
+    <t>https://bamboo.springlab.enel.com/deploy/viewEnvironment.action?id=538804507</t>
   </si>
   <si>
     <t>migrazione/template_to_2.36</t>
   </si>
   <si>
     <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00453-lan-mettoperations/browse</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
     <t>https://bitbucket.springlab.enel.com/projects/GLGT-AP35622-MS-PLATFORM/repos/glgt-mp00461-lan-mettcontract/browse</t>
@@ -1790,7 +1815,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2650,19 +2675,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2675,42 +2687,27 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="55">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center"/>
       <border>
@@ -3162,6 +3159,26 @@
       <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
@@ -3537,19 +3554,19 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3583,6 +3600,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3682,7 +3709,7 @@
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3717,7 +3744,7 @@
         <family val="2"/>
         <charset val="1"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3978,6 +4005,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="medium">
           <color auto="1"/>
         </left>
@@ -3997,13 +4031,6 @@
         </patternFill>
       </fill>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4042,7 +4069,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A34:M39" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A34:M39" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52">
   <autoFilter ref="A34:M39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:K39">
     <sortCondition ref="F34:F39"/>
@@ -4069,7 +4096,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:O108" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:O108" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35">
   <autoFilter ref="A1:O108" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="4">
       <filters>
@@ -4078,45 +4105,45 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Code" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Template" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Project" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Usa eventi" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Java Version" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Priority" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Migration Start Date" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Migration End Date" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Migration Status" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Migration Notes" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Owner" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Internal Notes" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="External Requests" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Code" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Template" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Project" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Usa eventi" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Java Version" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Priority" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Migration Start Date" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Migration End Date" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Migration Status" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Migration Notes" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Owner" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Internal Notes" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="External Requests" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:O16" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:O16" totalsRowShown="0" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:O16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Code" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Template" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Project" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Usa Eventi" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Java Version" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Priority" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Migration Start Date" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Migration End Date" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Migration Status" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Migration Notes" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Owner" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Internal Notes" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="External Requests" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Code" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Template" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Project" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Usa Eventi" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Java Version" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Priority" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Migration Start Date" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Migration End Date" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Migration Status" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Migration Notes" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Owner" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Internal Notes" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="External Requests" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4443,7 +4470,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
@@ -4460,7 +4487,7 @@
     <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="21" customHeight="1">
       <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
@@ -4501,7 +4528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
@@ -4530,7 +4557,7 @@
         <v>45740</v>
       </c>
       <c r="J2" s="21" t="str">
-        <f t="shared" ref="J2:J19" si="0">IF(ISBLANK(H2), "Not yet started", IF(ISBLANK(I2),"In progress", "Done"))</f>
+        <f>IF(ISBLANK(H2), "Not yet started", IF(ISBLANK(I2),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K2" s="26" t="s">
@@ -4543,7 +4570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="45" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -4572,7 +4599,7 @@
         <v>45728</v>
       </c>
       <c r="J3" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H3), "Not yet started", IF(ISBLANK(I3),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -4585,7 +4612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="45" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
@@ -4614,7 +4641,7 @@
         <v>45744</v>
       </c>
       <c r="J4" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H4), "Not yet started", IF(ISBLANK(I4),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K4" s="26" t="s">
@@ -4627,7 +4654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="45" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -4654,7 +4681,7 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H5), "Not yet started", IF(ISBLANK(I5),"In progress", "Done"))</f>
         <v>In progress</v>
       </c>
       <c r="K5" s="36" t="s">
@@ -4663,7 +4690,7 @@
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="45" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>32</v>
       </c>
@@ -4692,7 +4719,7 @@
         <v>45740</v>
       </c>
       <c r="J6" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H6), "Not yet started", IF(ISBLANK(I6),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K6" s="26" t="s">
@@ -4705,7 +4732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="20" t="s">
         <v>34</v>
       </c>
@@ -4734,7 +4761,7 @@
         <v>45736</v>
       </c>
       <c r="J7" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H7), "Not yet started", IF(ISBLANK(I7),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K7" s="26" t="s">
@@ -4747,7 +4774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="25" t="s">
         <v>39</v>
       </c>
@@ -4776,7 +4803,7 @@
         <v>45740</v>
       </c>
       <c r="J8" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H8), "Not yet started", IF(ISBLANK(I8),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -4789,7 +4816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>41</v>
       </c>
@@ -4818,7 +4845,7 @@
         <v>45740</v>
       </c>
       <c r="J9" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H9), "Not yet started", IF(ISBLANK(I9),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K9" s="26" t="s">
@@ -4831,7 +4858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="30" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>43</v>
       </c>
@@ -4860,7 +4887,7 @@
         <v>41350</v>
       </c>
       <c r="J10" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H10), "Not yet started", IF(ISBLANK(I10),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K10" s="26" t="s">
@@ -4873,7 +4900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="20" t="s">
         <v>49</v>
       </c>
@@ -4902,7 +4929,7 @@
         <v>45723</v>
       </c>
       <c r="J11" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H11), "Not yet started", IF(ISBLANK(I11),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K11" s="26"/>
@@ -4913,7 +4940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="45" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
@@ -4940,7 +4967,7 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H12), "Not yet started", IF(ISBLANK(I12),"In progress", "Done"))</f>
         <v>In progress</v>
       </c>
       <c r="K12" s="36" t="s">
@@ -4949,7 +4976,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="20" t="s">
         <v>58</v>
       </c>
@@ -4978,7 +5005,7 @@
         <v>45728</v>
       </c>
       <c r="J13" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H13), "Not yet started", IF(ISBLANK(I13),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K13" s="26"/>
@@ -4989,7 +5016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="45" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
@@ -5016,7 +5043,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H14), "Not yet started", IF(ISBLANK(I14),"In progress", "Done"))</f>
         <v>In progress</v>
       </c>
       <c r="K14" s="36" t="s">
@@ -5025,7 +5052,7 @@
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="20" t="s">
         <v>66</v>
       </c>
@@ -5054,7 +5081,7 @@
         <v>45728</v>
       </c>
       <c r="J15" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H15), "Not yet started", IF(ISBLANK(I15),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K15" s="26"/>
@@ -5066,7 +5093,7 @@
       </c>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="45" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
@@ -5093,7 +5120,7 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H16), "Not yet started", IF(ISBLANK(I16),"In progress", "Done"))</f>
         <v>In progress</v>
       </c>
       <c r="K16" s="36" t="s">
@@ -5102,7 +5129,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="20" t="s">
         <v>70</v>
       </c>
@@ -5131,7 +5158,7 @@
         <v>45728</v>
       </c>
       <c r="J17" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H17), "Not yet started", IF(ISBLANK(I17),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K17" s="26"/>
@@ -5142,7 +5169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="20" t="s">
         <v>72</v>
       </c>
@@ -5171,7 +5198,7 @@
         <v>45721</v>
       </c>
       <c r="J18" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H18), "Not yet started", IF(ISBLANK(I18),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K18" s="26"/>
@@ -5182,7 +5209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="20" t="s">
         <v>76</v>
       </c>
@@ -5211,7 +5238,7 @@
         <v>45721</v>
       </c>
       <c r="J19" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(H19), "Not yet started", IF(ISBLANK(I19),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K19" s="26"/>
@@ -5222,7 +5249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="6" customFormat="1">
       <c r="A20" s="20" t="s">
         <v>78</v>
       </c>
@@ -5264,7 +5291,7 @@
       </c>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>82</v>
       </c>
@@ -5305,7 +5332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="20" t="s">
         <v>85</v>
       </c>
@@ -5334,7 +5361,7 @@
         <v>45722</v>
       </c>
       <c r="J22" s="21" t="str">
-        <f t="shared" ref="J22:J32" si="1">IF(ISBLANK(H22), "Not yet started", IF(ISBLANK(I22),"In progress", "Done"))</f>
+        <f>IF(ISBLANK(H22), "Not yet started", IF(ISBLANK(I22),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K22" s="26"/>
@@ -5345,7 +5372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="20" t="s">
         <v>87</v>
       </c>
@@ -5374,7 +5401,7 @@
         <v>45722</v>
       </c>
       <c r="J23" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H23), "Not yet started", IF(ISBLANK(I23),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K23" s="26"/>
@@ -5385,7 +5412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="20" t="s">
         <v>89</v>
       </c>
@@ -5414,7 +5441,7 @@
         <v>45744</v>
       </c>
       <c r="J24" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H24), "Not yet started", IF(ISBLANK(I24),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -5427,7 +5454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="30" customHeight="1">
       <c r="A25" s="41" t="s">
         <v>94</v>
       </c>
@@ -5456,7 +5483,7 @@
         <v>45744</v>
       </c>
       <c r="J25" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H25), "Not yet started", IF(ISBLANK(I25),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K25" s="26" t="s">
@@ -5468,7 +5495,7 @@
       <c r="M25" s="35"/>
       <c r="O25" s="43"/>
     </row>
-    <row r="26" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="45" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>97</v>
       </c>
@@ -5497,7 +5524,7 @@
         <v>45744</v>
       </c>
       <c r="J26" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H26), "Not yet started", IF(ISBLANK(I26),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K26" s="26" t="s">
@@ -5510,7 +5537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="30" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>100</v>
       </c>
@@ -5533,7 +5560,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="19"/>
       <c r="J27" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H27), "Not yet started", IF(ISBLANK(I27),"In progress", "Done"))</f>
         <v>Not yet started</v>
       </c>
       <c r="K27" s="37" t="s">
@@ -5542,7 +5569,7 @@
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="45" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>104</v>
       </c>
@@ -5569,7 +5596,7 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H28), "Not yet started", IF(ISBLANK(I28),"In progress", "Done"))</f>
         <v>In progress</v>
       </c>
       <c r="K28" s="36" t="s">
@@ -5578,7 +5605,7 @@
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="45" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>106</v>
       </c>
@@ -5605,7 +5632,7 @@
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H29), "Not yet started", IF(ISBLANK(I29),"In progress", "Done"))</f>
         <v>In progress</v>
       </c>
       <c r="K29" s="36" t="s">
@@ -5614,7 +5641,7 @@
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="45" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>108</v>
       </c>
@@ -5641,7 +5668,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H30), "Not yet started", IF(ISBLANK(I30),"In progress", "Done"))</f>
         <v>In progress</v>
       </c>
       <c r="K30" s="36" t="s">
@@ -5650,7 +5677,7 @@
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
     </row>
-    <row r="31" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="45" customHeight="1">
       <c r="A31" s="20" t="s">
         <v>110</v>
       </c>
@@ -5679,7 +5706,7 @@
         <v>45744</v>
       </c>
       <c r="J31" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H31), "Not yet started", IF(ISBLANK(I31),"In progress", "Done"))</f>
         <v>Done</v>
       </c>
       <c r="K31" s="26" t="s">
@@ -5691,7 +5718,7 @@
       <c r="M31" s="35"/>
       <c r="O31" s="43"/>
     </row>
-    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="30" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>117</v>
       </c>
@@ -5718,7 +5745,7 @@
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(H32), "Not yet started", IF(ISBLANK(I32),"In progress", "Done"))</f>
         <v>In progress</v>
       </c>
       <c r="K32" s="36" t="s">
@@ -5727,7 +5754,7 @@
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5768,7 +5795,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>122</v>
       </c>
@@ -5806,7 +5833,7 @@
       <c r="L35" s="39"/>
       <c r="M35" s="42"/>
     </row>
-    <row r="36" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="21" t="s">
         <v>126</v>
       </c>
@@ -5844,7 +5871,7 @@
       <c r="L36" s="39"/>
       <c r="M36" s="42"/>
     </row>
-    <row r="37" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>131</v>
       </c>
@@ -5882,7 +5909,7 @@
       <c r="L37" s="39"/>
       <c r="M37" s="42"/>
     </row>
-    <row r="38" spans="1:13" s="6" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="6" customFormat="1" ht="120" customHeight="1">
       <c r="A38" s="21" t="s">
         <v>133</v>
       </c>
@@ -5920,7 +5947,7 @@
       <c r="L38" s="39"/>
       <c r="M38" s="42"/>
     </row>
-    <row r="39" spans="1:13" s="6" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="6" customFormat="1" ht="124.5" customHeight="1">
       <c r="A39" s="27" t="s">
         <v>136</v>
       </c>
@@ -5962,7 +5989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
@@ -5984,7 +6011,7 @@
       <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -6009,7 +6036,7 @@
     <col min="26" max="26" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="17.25" customHeight="1">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -6087,7 +6114,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="75" hidden="1" customHeight="1">
       <c r="A2" s="54" t="s">
         <v>157</v>
       </c>
@@ -6173,7 +6200,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A3" s="54" t="s">
         <v>13</v>
       </c>
@@ -6229,7 +6256,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A4" s="54" t="s">
         <v>25</v>
       </c>
@@ -6283,7 +6310,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="60" customHeight="1">
       <c r="A5" s="54" t="s">
         <v>169</v>
       </c>
@@ -6337,7 +6364,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="75" hidden="1" customHeight="1">
       <c r="A6" s="54" t="s">
         <v>174</v>
       </c>
@@ -6393,7 +6420,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="60" hidden="1" customHeight="1">
       <c r="A7" s="54" t="s">
         <v>39</v>
       </c>
@@ -6449,7 +6476,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="60" hidden="1" customHeight="1">
       <c r="A8" s="54" t="s">
         <v>180</v>
       </c>
@@ -6503,7 +6530,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="210" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="210" hidden="1" customHeight="1">
       <c r="A9" s="84" t="s">
         <v>183</v>
       </c>
@@ -6555,7 +6582,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A10" s="54" t="s">
         <v>23</v>
       </c>
@@ -6609,7 +6636,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="60" hidden="1" customHeight="1">
       <c r="A11" s="54" t="s">
         <v>41</v>
       </c>
@@ -6665,7 +6692,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="60" hidden="1" customHeight="1">
       <c r="A12" s="54" t="s">
         <v>34</v>
       </c>
@@ -6721,7 +6748,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A13" s="101" t="s">
         <v>27</v>
       </c>
@@ -6769,7 +6796,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="30" hidden="1" customHeight="1">
       <c r="A14" s="54" t="s">
         <v>32</v>
       </c>
@@ -6823,7 +6850,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="90" hidden="1" customHeight="1">
       <c r="A15" s="84" t="s">
         <v>194</v>
       </c>
@@ -6877,7 +6904,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1">
       <c r="A16" s="54" t="s">
         <v>198</v>
       </c>
@@ -6931,7 +6958,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A17" s="54" t="s">
         <v>204</v>
       </c>
@@ -6987,7 +7014,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1">
       <c r="A18" s="54" t="s">
         <v>206</v>
       </c>
@@ -7041,7 +7068,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1">
       <c r="A19" s="54" t="s">
         <v>54</v>
       </c>
@@ -7095,7 +7122,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" hidden="1">
       <c r="A20" s="54" t="s">
         <v>208</v>
       </c>
@@ -7149,7 +7176,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1">
       <c r="A21" s="54" t="s">
         <v>211</v>
       </c>
@@ -7203,7 +7230,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1">
       <c r="A22" s="54" t="s">
         <v>215</v>
       </c>
@@ -7257,7 +7284,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1">
       <c r="A23" s="54" t="s">
         <v>217</v>
       </c>
@@ -7311,7 +7338,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" hidden="1">
       <c r="A24" s="54" t="s">
         <v>49</v>
       </c>
@@ -7365,7 +7392,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1">
       <c r="A25" s="54" t="s">
         <v>220</v>
       </c>
@@ -7417,7 +7444,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1">
       <c r="A26" s="54" t="s">
         <v>222</v>
       </c>
@@ -7471,7 +7498,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="30" hidden="1" customHeight="1">
       <c r="A27" s="58" t="s">
         <v>225</v>
       </c>
@@ -7521,7 +7548,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1">
       <c r="A28" s="54" t="s">
         <v>230</v>
       </c>
@@ -7575,7 +7602,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="30" hidden="1" customHeight="1">
       <c r="A29" s="58" t="s">
         <v>232</v>
       </c>
@@ -7625,7 +7652,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A30" s="58" t="s">
         <v>234</v>
       </c>
@@ -7675,7 +7702,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1">
       <c r="A31" s="54" t="s">
         <v>237</v>
       </c>
@@ -7729,7 +7756,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1">
       <c r="A32" s="54" t="s">
         <v>239</v>
       </c>
@@ -7783,7 +7810,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" hidden="1">
       <c r="A33" s="54" t="s">
         <v>242</v>
       </c>
@@ -7837,7 +7864,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" hidden="1">
       <c r="A34" s="54" t="s">
         <v>245</v>
       </c>
@@ -7889,7 +7916,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" hidden="1">
       <c r="A35" s="54" t="s">
         <v>248</v>
       </c>
@@ -7943,7 +7970,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" hidden="1">
       <c r="A36" s="54" t="s">
         <v>251</v>
       </c>
@@ -7997,7 +8024,7 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" hidden="1">
       <c r="A37" s="54" t="s">
         <v>253</v>
       </c>
@@ -8051,7 +8078,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" hidden="1">
       <c r="A38" s="54" t="s">
         <v>255</v>
       </c>
@@ -8103,7 +8130,7 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" hidden="1">
       <c r="A39" s="54" t="s">
         <v>58</v>
       </c>
@@ -8155,7 +8182,7 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" hidden="1">
       <c r="A40" s="54" t="s">
         <v>259</v>
       </c>
@@ -8209,7 +8236,7 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" hidden="1">
       <c r="A41" s="54" t="s">
         <v>97</v>
       </c>
@@ -8263,7 +8290,7 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" hidden="1">
       <c r="A42" s="54" t="s">
         <v>94</v>
       </c>
@@ -8317,7 +8344,7 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="78" hidden="1" customHeight="1">
       <c r="A43" s="84" t="s">
         <v>108</v>
       </c>
@@ -8371,7 +8398,7 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44" spans="1:26" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="80.25" hidden="1" customHeight="1">
       <c r="A44" s="84" t="s">
         <v>68</v>
       </c>
@@ -8423,7 +8450,7 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" hidden="1">
       <c r="A45" s="54" t="s">
         <v>266</v>
       </c>
@@ -8475,7 +8502,7 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" hidden="1">
       <c r="A46" s="54" t="s">
         <v>89</v>
       </c>
@@ -8529,7 +8556,7 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
-    <row r="47" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="30" customHeight="1">
       <c r="A47" s="54" t="s">
         <v>268</v>
       </c>
@@ -8583,7 +8610,7 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
     </row>
-    <row r="48" spans="1:26" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="65.25" hidden="1" customHeight="1">
       <c r="A48" s="84" t="s">
         <v>104</v>
       </c>
@@ -8637,7 +8664,7 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1">
       <c r="A49" s="54" t="s">
         <v>85</v>
       </c>
@@ -8691,7 +8718,7 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" hidden="1">
       <c r="A50" s="54" t="s">
         <v>70</v>
       </c>
@@ -8743,7 +8770,7 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="75.75" hidden="1" customHeight="1">
       <c r="A51" s="84" t="s">
         <v>63</v>
       </c>
@@ -8795,7 +8822,7 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" hidden="1">
       <c r="A52" s="54" t="s">
         <v>273</v>
       </c>
@@ -8849,7 +8876,7 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1">
       <c r="A53" s="54" t="s">
         <v>87</v>
       </c>
@@ -8903,7 +8930,7 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1">
       <c r="A54" s="54" t="s">
         <v>66</v>
       </c>
@@ -8957,7 +8984,7 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" hidden="1">
       <c r="A55" s="54" t="s">
         <v>117</v>
       </c>
@@ -9011,7 +9038,7 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1">
       <c r="A56" s="54" t="s">
         <v>276</v>
       </c>
@@ -9065,7 +9092,7 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1">
       <c r="A57" s="54" t="s">
         <v>278</v>
       </c>
@@ -9117,7 +9144,7 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A58" s="84" t="s">
         <v>106</v>
       </c>
@@ -9165,7 +9192,7 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1">
       <c r="A59" s="54" t="s">
         <v>280</v>
       </c>
@@ -9217,7 +9244,7 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1">
       <c r="A60" s="54" t="s">
         <v>282</v>
       </c>
@@ -9271,7 +9298,7 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1">
       <c r="A61" s="54" t="s">
         <v>284</v>
       </c>
@@ -9325,7 +9352,7 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1">
       <c r="A62" s="54" t="s">
         <v>286</v>
       </c>
@@ -9377,7 +9404,7 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" hidden="1">
       <c r="A63" s="54" t="s">
         <v>290</v>
       </c>
@@ -9429,7 +9456,7 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" hidden="1">
       <c r="A64" s="54" t="s">
         <v>292</v>
       </c>
@@ -9479,7 +9506,7 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
-    <row r="65" spans="1:26" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="75" hidden="1" customHeight="1">
       <c r="A65" s="54" t="s">
         <v>294</v>
       </c>
@@ -9537,7 +9564,7 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" hidden="1">
       <c r="A66" s="54" t="s">
         <v>300</v>
       </c>
@@ -9589,7 +9616,7 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" hidden="1">
       <c r="A67" s="54" t="s">
         <v>78</v>
       </c>
@@ -9643,7 +9670,7 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" hidden="1">
       <c r="A68" s="54" t="s">
         <v>72</v>
       </c>
@@ -9697,7 +9724,7 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" hidden="1">
       <c r="A69" s="54" t="s">
         <v>302</v>
       </c>
@@ -9751,7 +9778,7 @@
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
     </row>
-    <row r="70" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A70" s="54" t="s">
         <v>110</v>
       </c>
@@ -9805,7 +9832,7 @@
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
     </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" hidden="1">
       <c r="A71" s="54" t="s">
         <v>76</v>
       </c>
@@ -9859,7 +9886,7 @@
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" hidden="1">
       <c r="A72" s="58" t="s">
         <v>133</v>
       </c>
@@ -9909,7 +9936,7 @@
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" hidden="1">
       <c r="A73" s="58" t="s">
         <v>306</v>
       </c>
@@ -9959,7 +9986,7 @@
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
     </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" hidden="1">
       <c r="A74" s="54" t="s">
         <v>309</v>
       </c>
@@ -10013,7 +10040,7 @@
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" hidden="1">
       <c r="A75" s="58" t="s">
         <v>131</v>
       </c>
@@ -10063,7 +10090,7 @@
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" hidden="1">
       <c r="A76" s="58" t="s">
         <v>126</v>
       </c>
@@ -10111,7 +10138,7 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77" spans="1:26" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="51" hidden="1" customHeight="1">
       <c r="A77" s="54" t="s">
         <v>311</v>
       </c>
@@ -10165,7 +10192,7 @@
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" hidden="1">
       <c r="A78" s="54" t="s">
         <v>315</v>
       </c>
@@ -10221,7 +10248,7 @@
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" hidden="1">
       <c r="A79" s="54" t="s">
         <v>136</v>
       </c>
@@ -10275,7 +10302,7 @@
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
     </row>
-    <row r="80" spans="1:26" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="38.25" hidden="1" customHeight="1">
       <c r="A80" s="54" t="s">
         <v>318</v>
       </c>
@@ -10331,7 +10358,7 @@
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
     </row>
-    <row r="81" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="27.75" hidden="1" customHeight="1">
       <c r="A81" s="58" t="s">
         <v>122</v>
       </c>
@@ -10381,7 +10408,7 @@
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" hidden="1">
       <c r="A82" s="54" t="s">
         <v>322</v>
       </c>
@@ -10435,7 +10462,7 @@
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" hidden="1">
       <c r="A83" s="54" t="s">
         <v>324</v>
       </c>
@@ -10489,7 +10516,7 @@
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
     </row>
-    <row r="84" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="30" hidden="1" customHeight="1">
       <c r="A84" s="54" t="s">
         <v>326</v>
       </c>
@@ -10543,7 +10570,7 @@
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" hidden="1">
       <c r="A85" s="64" t="s">
         <v>329</v>
       </c>
@@ -10593,7 +10620,7 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" hidden="1">
       <c r="A86" s="64" t="s">
         <v>332</v>
       </c>
@@ -10641,7 +10668,7 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
-    <row r="87" spans="1:26" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="45" hidden="1" customHeight="1">
       <c r="A87" s="64" t="s">
         <v>335</v>
       </c>
@@ -10693,7 +10720,7 @@
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
     </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" hidden="1">
       <c r="A88" s="64" t="s">
         <v>337</v>
       </c>
@@ -10743,7 +10770,7 @@
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
     </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" hidden="1">
       <c r="A89" s="64" t="s">
         <v>339</v>
       </c>
@@ -10793,7 +10820,7 @@
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
     </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" hidden="1">
       <c r="A90" s="64" t="s">
         <v>341</v>
       </c>
@@ -10843,7 +10870,7 @@
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" hidden="1">
       <c r="A91" s="64" t="s">
         <v>343</v>
       </c>
@@ -10893,7 +10920,7 @@
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
     </row>
-    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" hidden="1">
       <c r="A92" s="64" t="s">
         <v>345</v>
       </c>
@@ -10943,7 +10970,7 @@
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
     </row>
-    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" hidden="1">
       <c r="A93" s="78" t="s">
         <v>347</v>
       </c>
@@ -10995,7 +11022,7 @@
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
     </row>
-    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" hidden="1">
       <c r="A94" s="78" t="s">
         <v>351</v>
       </c>
@@ -11045,7 +11072,7 @@
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
     </row>
-    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" hidden="1">
       <c r="A95" s="78" t="s">
         <v>353</v>
       </c>
@@ -11097,7 +11124,7 @@
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" hidden="1">
       <c r="A96" s="78" t="s">
         <v>356</v>
       </c>
@@ -11147,7 +11174,7 @@
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
     </row>
-    <row r="97" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="30" hidden="1" customHeight="1">
       <c r="A97" s="55" t="s">
         <v>100</v>
       </c>
@@ -11199,7 +11226,7 @@
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1">
       <c r="A98" s="45" t="s">
         <v>43</v>
       </c>
@@ -11249,7 +11276,7 @@
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1">
       <c r="A99" s="45" t="s">
         <v>82</v>
       </c>
@@ -11301,7 +11328,7 @@
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
     </row>
-    <row r="100" spans="1:26" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="30" hidden="1" customHeight="1">
       <c r="A100" s="45" t="s">
         <v>361</v>
       </c>
@@ -11353,7 +11380,7 @@
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1">
       <c r="A101" s="97" t="s">
         <v>365</v>
       </c>
@@ -11407,7 +11434,7 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1">
       <c r="A102" s="110" t="s">
         <v>369</v>
       </c>
@@ -11449,7 +11476,7 @@
       <c r="O102" s="69"/>
       <c r="P102" s="8"/>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1">
       <c r="A103" s="100" t="s">
         <v>374</v>
       </c>
@@ -11489,7 +11516,7 @@
       <c r="O103" s="69"/>
       <c r="P103" s="8"/>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1">
       <c r="A104" s="110" t="s">
         <v>378</v>
       </c>
@@ -11531,7 +11558,7 @@
       <c r="O104" s="69"/>
       <c r="P104" s="8"/>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1">
       <c r="A105" s="112" t="s">
         <v>381</v>
       </c>
@@ -11573,7 +11600,7 @@
       <c r="O105" s="69"/>
       <c r="P105" s="8"/>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1">
       <c r="A106" s="112" t="s">
         <v>384</v>
       </c>
@@ -11615,7 +11642,7 @@
       <c r="O106" s="69"/>
       <c r="P106" s="8"/>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" hidden="1">
       <c r="A107" s="93" t="s">
         <v>386</v>
       </c>
@@ -11655,7 +11682,7 @@
       <c r="O107" s="69"/>
       <c r="P107" s="8"/>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" hidden="1">
       <c r="A108" s="94" t="s">
         <v>391</v>
       </c>
@@ -11695,30 +11722,30 @@
       <c r="O108" s="91"/>
       <c r="P108" s="8"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="P109" s="8"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="P110" s="8"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="16:16">
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="16:16">
       <c r="P114" s="8"/>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="16:16">
       <c r="P115" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A58:L58">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="$K$58 = &quot;In progress&quot;">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="$K$58 = &quot;In progress&quot;">
       <formula>NOT(ISERROR(SEARCH("$K$58 = ""In progress""",A58)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11736,7 +11763,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
@@ -11754,7 +11781,7 @@
     <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="18" customHeight="1">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -11810,7 +11837,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="45" hidden="1" customHeight="1">
       <c r="A2" s="54" t="s">
         <v>13</v>
       </c>
@@ -11872,7 +11899,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="45" hidden="1" customHeight="1">
       <c r="A3" s="54" t="s">
         <v>25</v>
       </c>
@@ -11914,7 +11941,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="54" t="s">
         <v>169</v>
       </c>
@@ -11956,7 +11983,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="30" hidden="1" customHeight="1">
       <c r="A5" s="54" t="s">
         <v>39</v>
       </c>
@@ -11995,7 +12022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="30" hidden="1" customHeight="1">
       <c r="A6" s="54" t="s">
         <v>23</v>
       </c>
@@ -12035,7 +12062,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="30" hidden="1" customHeight="1">
       <c r="A7" s="54" t="s">
         <v>41</v>
       </c>
@@ -12074,7 +12101,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="30" hidden="1" customHeight="1">
       <c r="A8" s="54" t="s">
         <v>34</v>
       </c>
@@ -12113,7 +12140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="101" t="s">
         <v>27</v>
       </c>
@@ -12144,7 +12171,7 @@
       <c r="L9" s="88"/>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="1:23" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="30" hidden="1" customHeight="1">
       <c r="A10" s="54" t="s">
         <v>32</v>
       </c>
@@ -12183,7 +12210,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="54" t="s">
         <v>217</v>
       </c>
@@ -12218,7 +12245,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="54" t="s">
         <v>220</v>
       </c>
@@ -12256,7 +12283,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="54" t="s">
         <v>300</v>
       </c>
@@ -12291,7 +12318,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="54" t="s">
         <v>211</v>
       </c>
@@ -12328,7 +12355,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="54" t="s">
         <v>54</v>
       </c>
@@ -12365,7 +12392,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="54" t="s">
         <v>49</v>
       </c>
@@ -12404,7 +12431,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17" s="54" t="s">
         <v>278</v>
       </c>
@@ -12441,7 +12468,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="58" t="s">
         <v>225</v>
       </c>
@@ -12479,7 +12506,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" customHeight="1">
       <c r="A19" s="58" t="s">
         <v>232</v>
       </c>
@@ -12517,7 +12544,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
       <c r="A20" s="58" t="s">
         <v>234</v>
       </c>
@@ -12555,7 +12582,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" s="54" t="s">
         <v>280</v>
       </c>
@@ -12592,7 +12619,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>58</v>
       </c>
@@ -12632,7 +12659,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A23" s="54" t="s">
         <v>97</v>
       </c>
@@ -12670,7 +12697,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A24" s="54" t="s">
         <v>94</v>
       </c>
@@ -12710,7 +12737,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" s="54" t="s">
         <v>290</v>
       </c>
@@ -12747,7 +12774,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" s="54" t="s">
         <v>208</v>
       </c>
@@ -12782,7 +12809,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A27" s="54" t="s">
         <v>89</v>
       </c>
@@ -12820,7 +12847,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="54" t="s">
         <v>268</v>
       </c>
@@ -12862,7 +12889,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" s="54" t="s">
         <v>292</v>
       </c>
@@ -12897,7 +12924,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A30" s="54" t="s">
         <v>85</v>
       </c>
@@ -12936,7 +12963,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31" s="84" t="s">
         <v>108</v>
       </c>
@@ -12967,7 +12994,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32" s="84" t="s">
         <v>68</v>
       </c>
@@ -12998,7 +13025,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A33" s="54" t="s">
         <v>273</v>
       </c>
@@ -13038,7 +13065,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A34" s="54" t="s">
         <v>87</v>
       </c>
@@ -13077,7 +13104,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1">
       <c r="A35" s="84" t="s">
         <v>104</v>
       </c>
@@ -13108,7 +13135,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1">
       <c r="A36" s="54" t="s">
         <v>117</v>
       </c>
@@ -13150,7 +13177,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1">
       <c r="A37" s="54" t="s">
         <v>276</v>
       </c>
@@ -13189,7 +13216,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A38" s="54" t="s">
         <v>70</v>
       </c>
@@ -13229,7 +13256,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="19.5" hidden="1" customHeight="1">
       <c r="A39" s="84" t="s">
         <v>106</v>
       </c>
@@ -13260,7 +13287,7 @@
       <c r="L39" s="88"/>
       <c r="M39" s="53"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1">
       <c r="A40" s="84" t="s">
         <v>63</v>
       </c>
@@ -13291,7 +13318,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A41" s="132" t="s">
         <v>286</v>
       </c>
@@ -13326,7 +13353,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="30" hidden="1" customHeight="1">
       <c r="A42" s="54" t="s">
         <v>66</v>
       </c>
@@ -13366,7 +13393,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1">
       <c r="A43" s="54" t="s">
         <v>242</v>
       </c>
@@ -13406,7 +13433,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1">
       <c r="A44" s="54" t="s">
         <v>294</v>
       </c>
@@ -13443,7 +13470,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1">
       <c r="A45" s="54" t="s">
         <v>315</v>
       </c>
@@ -13483,7 +13510,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1">
       <c r="A46" s="54" t="s">
         <v>78</v>
       </c>
@@ -13522,7 +13549,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1">
       <c r="A47" s="54" t="s">
         <v>72</v>
       </c>
@@ -13561,7 +13588,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1">
       <c r="A48" s="54" t="s">
         <v>302</v>
       </c>
@@ -13598,7 +13625,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49" s="54" t="s">
         <v>110</v>
       </c>
@@ -13640,7 +13667,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50" s="54" t="s">
         <v>76</v>
       </c>
@@ -13679,7 +13706,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="30" customHeight="1">
       <c r="A51" s="58" t="s">
         <v>133</v>
       </c>
@@ -13715,7 +13742,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="30" customHeight="1">
       <c r="A52" s="58" t="s">
         <v>306</v>
       </c>
@@ -13751,7 +13778,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="30" customHeight="1">
       <c r="A53" s="58" t="s">
         <v>131</v>
       </c>
@@ -13787,7 +13814,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="30" customHeight="1">
       <c r="A54" s="58" t="s">
         <v>126</v>
       </c>
@@ -13823,7 +13850,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55" s="54" t="s">
         <v>311</v>
       </c>
@@ -13862,7 +13889,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56" s="54" t="s">
         <v>198</v>
       </c>
@@ -13899,7 +13926,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1">
       <c r="A57" s="54" t="s">
         <v>136</v>
       </c>
@@ -13936,7 +13963,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="30" customHeight="1">
       <c r="A58" s="58" t="s">
         <v>122</v>
       </c>
@@ -13972,7 +13999,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1">
       <c r="A59" s="78" t="s">
         <v>347</v>
       </c>
@@ -14012,7 +14039,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1">
       <c r="A60" s="78" t="s">
         <v>351</v>
       </c>
@@ -14052,7 +14079,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1">
       <c r="A61" s="78" t="s">
         <v>353</v>
       </c>
@@ -14090,7 +14117,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1">
       <c r="A62" s="78" t="s">
         <v>356</v>
       </c>
@@ -14127,7 +14154,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1">
       <c r="A63" s="55" t="s">
         <v>100</v>
       </c>
@@ -14165,7 +14192,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1">
       <c r="A64" s="45" t="s">
         <v>43</v>
       </c>
@@ -14205,7 +14232,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1">
       <c r="A65" s="45" t="s">
         <v>82</v>
       </c>
@@ -14243,7 +14270,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1">
       <c r="A66" s="110" t="s">
         <v>369</v>
       </c>
@@ -14280,7 +14307,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1">
       <c r="A67" s="110" t="s">
         <v>374</v>
       </c>
@@ -14317,7 +14344,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1">
       <c r="A68" s="110" t="s">
         <v>378</v>
       </c>
@@ -14354,7 +14381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1">
       <c r="A69" s="129" t="s">
         <v>381</v>
       </c>
@@ -14391,7 +14418,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1">
       <c r="A70" s="129" t="s">
         <v>384</v>
       </c>
@@ -14428,7 +14455,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1">
       <c r="A71" s="129" t="s">
         <v>386</v>
       </c>
@@ -14465,7 +14492,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1">
       <c r="A72" s="137" t="s">
         <v>391</v>
       </c>
@@ -14515,12 +14542,12 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A39:F39">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="$K$58 = &quot;In progress&quot;">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="$K$58 = &quot;In progress&quot;">
       <formula>NOT(ISERROR(SEARCH("$K$58 = ""In progress""",A39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:L39">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="$K$58 = &quot;In progress&quot;">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="$K$58 = &quot;In progress&quot;">
       <formula>NOT(ISERROR(SEARCH("$K$58 = ""In progress""",H39)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14532,11 +14559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
@@ -14550,8 +14577,8 @@
     <col min="10" max="10" width="128" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="79" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="247" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="67" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="93" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" customWidth="1"/>
@@ -14567,7 +14594,7 @@
     <col min="27" max="27" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="21.75" customHeight="1">
       <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
@@ -14644,7 +14671,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" ht="75" customHeight="1">
       <c r="A2" s="145" t="s">
         <v>49</v>
       </c>
@@ -14668,7 +14695,7 @@
       <c r="I2" s="146" t="s">
         <v>428</v>
       </c>
-      <c r="J2" s="158">
+      <c r="J2" s="153">
         <v>45728</v>
       </c>
       <c r="K2" s="146" t="s">
@@ -14684,11 +14711,11 @@
       <c r="O2" s="146"/>
       <c r="Q2" s="140">
         <f>COUNTIF(K2:K16,"Done")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" s="140">
         <f>COUNTIF(K2:K16, "In progress")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" s="140">
         <f>COUNTIF(K2:K16, "")</f>
@@ -14718,10 +14745,10 @@
       </c>
       <c r="Z2" s="141">
         <f>ROUND(Q2/Y2, 2)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="60" customHeight="1">
       <c r="A3" s="145" t="s">
         <v>78</v>
       </c>
@@ -14745,9 +14772,11 @@
       <c r="I3" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J3" s="159"/>
+      <c r="J3" s="153">
+        <v>45759</v>
+      </c>
       <c r="K3" s="146" t="s">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="L3" s="147" t="s">
         <v>432</v>
@@ -14755,7 +14784,9 @@
       <c r="M3" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="N3" s="146"/>
+      <c r="N3" s="147" t="s">
+        <v>433</v>
+      </c>
       <c r="O3" s="146"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -14768,7 +14799,7 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="60" customHeight="1">
       <c r="A4" s="145" t="s">
         <v>72</v>
       </c>
@@ -14792,7 +14823,7 @@
       <c r="I4" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J4" s="159"/>
+      <c r="J4" s="154"/>
       <c r="K4" s="146" t="s">
         <v>389</v>
       </c>
@@ -14802,10 +14833,12 @@
       <c r="M4" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="N4" s="146"/>
+      <c r="N4" s="147" t="s">
+        <v>433</v>
+      </c>
       <c r="O4" s="146"/>
     </row>
-    <row r="5" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="60" customHeight="1">
       <c r="A5" s="142" t="s">
         <v>76</v>
       </c>
@@ -14829,7 +14862,7 @@
       <c r="I5" s="151" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="160"/>
+      <c r="J5" s="155"/>
       <c r="K5" s="151" t="s">
         <v>389</v>
       </c>
@@ -14840,11 +14873,11 @@
         <v>430</v>
       </c>
       <c r="N5" s="152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O5" s="151"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" ht="105" customHeight="1">
       <c r="A6" s="149" t="s">
         <v>225</v>
       </c>
@@ -14864,18 +14897,18 @@
       <c r="G6" s="150"/>
       <c r="H6" s="150"/>
       <c r="I6" s="150"/>
-      <c r="J6" s="161"/>
+      <c r="J6" s="156"/>
       <c r="K6" s="150"/>
       <c r="L6" s="148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M6" s="150"/>
       <c r="N6" s="148" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O6" s="150"/>
     </row>
-    <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="30" customHeight="1">
       <c r="A7" s="149" t="s">
         <v>232</v>
       </c>
@@ -14895,16 +14928,16 @@
       <c r="G7" s="150"/>
       <c r="H7" s="150"/>
       <c r="I7" s="150"/>
-      <c r="J7" s="161"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="150"/>
       <c r="L7" s="148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M7" s="150"/>
       <c r="N7" s="150"/>
       <c r="O7" s="150"/>
     </row>
-    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="30" customHeight="1">
       <c r="A8" s="149" t="s">
         <v>234</v>
       </c>
@@ -14924,16 +14957,16 @@
       <c r="G8" s="150"/>
       <c r="H8" s="150"/>
       <c r="I8" s="150"/>
-      <c r="J8" s="161"/>
+      <c r="J8" s="156"/>
       <c r="K8" s="150"/>
       <c r="L8" s="148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M8" s="150"/>
       <c r="N8" s="150"/>
       <c r="O8" s="150"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="149" t="s">
         <v>133</v>
       </c>
@@ -14953,16 +14986,16 @@
       <c r="G9" s="150"/>
       <c r="H9" s="150"/>
       <c r="I9" s="150"/>
-      <c r="J9" s="161"/>
+      <c r="J9" s="156"/>
       <c r="K9" s="150"/>
       <c r="L9" s="148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M9" s="150"/>
       <c r="N9" s="150"/>
       <c r="O9" s="150"/>
     </row>
-    <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="30" customHeight="1">
       <c r="A10" s="149" t="s">
         <v>131</v>
       </c>
@@ -14982,16 +15015,16 @@
       <c r="G10" s="150"/>
       <c r="H10" s="150"/>
       <c r="I10" s="150"/>
-      <c r="J10" s="161"/>
+      <c r="J10" s="156"/>
       <c r="K10" s="150"/>
       <c r="L10" s="148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M10" s="150"/>
       <c r="N10" s="150"/>
       <c r="O10" s="150"/>
     </row>
-    <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="30" customHeight="1">
       <c r="A11" s="149" t="s">
         <v>126</v>
       </c>
@@ -15011,16 +15044,16 @@
       <c r="G11" s="150"/>
       <c r="H11" s="150"/>
       <c r="I11" s="150"/>
-      <c r="J11" s="161"/>
+      <c r="J11" s="156"/>
       <c r="K11" s="150"/>
       <c r="L11" s="148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M11" s="150"/>
       <c r="N11" s="150"/>
       <c r="O11" s="150"/>
     </row>
-    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="30" customHeight="1">
       <c r="A12" s="149" t="s">
         <v>122</v>
       </c>
@@ -15040,16 +15073,16 @@
       <c r="G12" s="150"/>
       <c r="H12" s="150"/>
       <c r="I12" s="150"/>
-      <c r="J12" s="161"/>
+      <c r="J12" s="156"/>
       <c r="K12" s="150"/>
       <c r="L12" s="148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M12" s="150"/>
       <c r="N12" s="150"/>
       <c r="O12" s="150"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13" s="145" t="s">
         <v>242</v>
       </c>
@@ -15065,13 +15098,15 @@
       <c r="E13" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="146"/>
+      <c r="F13" s="146" t="s">
+        <v>160</v>
+      </c>
       <c r="G13" s="146"/>
       <c r="H13" s="146"/>
       <c r="I13" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J13" s="158">
+      <c r="J13" s="153">
         <v>45728</v>
       </c>
       <c r="K13" s="146" t="s">
@@ -15079,12 +15114,12 @@
       </c>
       <c r="L13" s="147"/>
       <c r="M13" s="146" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N13" s="146"/>
       <c r="O13" s="146"/>
     </row>
-    <row r="14" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="60" customHeight="1">
       <c r="A14" s="145" t="s">
         <v>136</v>
       </c>
@@ -15100,13 +15135,15 @@
       <c r="E14" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="146"/>
+      <c r="F14" s="146" t="s">
+        <v>160</v>
+      </c>
       <c r="G14" s="146"/>
       <c r="H14" s="146"/>
       <c r="I14" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J14" s="158">
+      <c r="J14" s="153">
         <v>45728</v>
       </c>
       <c r="K14" s="146" t="s">
@@ -15121,7 +15158,7 @@
       <c r="N14" s="146"/>
       <c r="O14" s="146"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="145" t="s">
         <v>198</v>
       </c>
@@ -15137,18 +15174,20 @@
       <c r="E15" s="145" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="146"/>
+      <c r="F15" s="146" t="s">
+        <v>160</v>
+      </c>
       <c r="G15" s="146"/>
       <c r="H15" s="146"/>
       <c r="I15" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J15" s="159"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="146" t="s">
         <v>389</v>
       </c>
       <c r="L15" s="147" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M15" s="146" t="s">
         <v>430</v>
@@ -15156,7 +15195,7 @@
       <c r="N15" s="146"/>
       <c r="O15" s="146"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="145" t="s">
         <v>276</v>
       </c>
@@ -15172,18 +15211,20 @@
       <c r="E16" s="145" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="146"/>
+      <c r="F16" s="146" t="s">
+        <v>160</v>
+      </c>
       <c r="G16" s="146"/>
       <c r="H16" s="146"/>
       <c r="I16" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="J16" s="159"/>
+      <c r="J16" s="154"/>
       <c r="K16" s="146" t="s">
         <v>389</v>
       </c>
       <c r="L16" s="147" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M16" s="146" t="s">
         <v>430</v>
@@ -15191,1232 +15232,1287 @@
       <c r="N16" s="146"/>
       <c r="O16" s="146"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
-      <c r="B20" s="153" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="154" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="161"/>
+      <c r="B20" s="161" t="s">
         <v>440</v>
       </c>
-      <c r="B21" s="154" t="s">
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="157" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="154" t="s">
+      <c r="B21" s="157" t="s">
         <v>442</v>
       </c>
-      <c r="B22" s="154" t="s">
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="157" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="154" t="s">
+      <c r="B22" s="157" t="s">
         <v>444</v>
       </c>
-      <c r="B23" s="154" t="s">
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="157" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="154" t="s">
+      <c r="B23" s="157" t="s">
         <v>446</v>
       </c>
-      <c r="B24" s="154" t="s">
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="157" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="154" t="s">
+      <c r="B24" s="157" t="s">
         <v>448</v>
       </c>
-      <c r="B25" s="154" t="s">
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="157" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="154" t="s">
+      <c r="B25" s="157" t="s">
         <v>450</v>
       </c>
-      <c r="B26" s="154" t="s">
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="157" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="153" t="s">
+      <c r="B26" s="157" t="s">
         <v>452</v>
       </c>
-      <c r="B29" s="153" t="s">
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="161" t="s">
         <v>453</v>
       </c>
-      <c r="C29" s="153" t="s">
+      <c r="B29" s="161" t="s">
         <v>454</v>
       </c>
-      <c r="D29" s="153" t="s">
+      <c r="C29" s="161" t="s">
         <v>455</v>
       </c>
-      <c r="E29" s="153" t="s">
+      <c r="D29" s="161" t="s">
+        <v>456</v>
+      </c>
+      <c r="E29" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="153" t="s">
+      <c r="F29" s="161" t="s">
+        <v>457</v>
+      </c>
+      <c r="G29" s="161" t="s">
+        <v>458</v>
+      </c>
+      <c r="H29" s="161" t="s">
+        <v>459</v>
+      </c>
+      <c r="I29" s="161" t="s">
+        <v>460</v>
+      </c>
+      <c r="J29" s="161" t="s">
+        <v>461</v>
+      </c>
+      <c r="K29" s="161" t="s">
+        <v>462</v>
+      </c>
+      <c r="L29" s="161" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="157" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" s="157" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" s="157" t="s">
+        <v>441</v>
+      </c>
+      <c r="D30" s="157" t="s">
+        <v>464</v>
+      </c>
+      <c r="E30" s="157" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" s="157" t="s">
+        <v>466</v>
+      </c>
+      <c r="G30" s="157" t="s">
+        <v>467</v>
+      </c>
+      <c r="H30" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="I30" s="157" t="s">
+        <v>469</v>
+      </c>
+      <c r="J30" s="157" t="s">
+        <v>470</v>
+      </c>
+      <c r="K30" s="157" t="s">
+        <v>471</v>
+      </c>
+      <c r="L30" s="157" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="158" t="s">
+        <v>443</v>
+      </c>
+      <c r="B31" s="157" t="s">
+        <v>443</v>
+      </c>
+      <c r="C31" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D31" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G31" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="H31" s="157" t="s">
+        <v>475</v>
+      </c>
+      <c r="I31" s="157" t="s">
+        <v>476</v>
+      </c>
+      <c r="J31" s="157" t="s">
+        <v>477</v>
+      </c>
+      <c r="K31" s="157" t="s">
+        <v>478</v>
+      </c>
+      <c r="L31" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="159" t="s">
+        <v>445</v>
+      </c>
+      <c r="B32" s="157" t="s">
+        <v>480</v>
+      </c>
+      <c r="C32" s="157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D32" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="157" t="s">
+        <v>481</v>
+      </c>
+      <c r="G32" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="H32" s="157" t="s">
+        <v>475</v>
+      </c>
+      <c r="I32" s="157" t="s">
+        <v>482</v>
+      </c>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157" t="s">
+        <v>483</v>
+      </c>
+      <c r="L32" s="157"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B33" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C33" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="D33" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G33" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="H33" s="157" t="s">
+        <v>484</v>
+      </c>
+      <c r="I33" s="157" t="s">
+        <v>485</v>
+      </c>
+      <c r="J33" s="160" t="s">
+        <v>486</v>
+      </c>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C34" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D34" s="157" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G34" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="H34" s="157" t="s">
+        <v>488</v>
+      </c>
+      <c r="I34" s="157" t="s">
+        <v>489</v>
+      </c>
+      <c r="J34" s="157" t="s">
+        <v>490</v>
+      </c>
+      <c r="K34" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="L34" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B35" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="C35" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="157" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G35" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="H35" s="157" t="s">
+        <v>492</v>
+      </c>
+      <c r="I35" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="J35" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="K35" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="L35" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B36" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="C36" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D36" s="157" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G36" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="H36" s="157" t="s">
+        <v>494</v>
+      </c>
+      <c r="I36" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="J36" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="K36" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="L36" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="D37" s="157" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G37" s="157" t="s">
+        <v>474</v>
+      </c>
+      <c r="H37" s="157" t="s">
+        <v>495</v>
+      </c>
+      <c r="I37" s="157" t="s">
+        <v>496</v>
+      </c>
+      <c r="J37" s="160" t="s">
+        <v>497</v>
+      </c>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="157" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="157" t="s">
+        <v>500</v>
+      </c>
+      <c r="C38" s="157" t="s">
+        <v>500</v>
+      </c>
+      <c r="D38" s="157" t="s">
+        <v>501</v>
+      </c>
+      <c r="E38" s="157" t="s">
+        <v>500</v>
+      </c>
+      <c r="F38" s="157" t="s">
+        <v>502</v>
+      </c>
+      <c r="G38" s="157" t="s">
+        <v>503</v>
+      </c>
+      <c r="H38" s="157" t="s">
+        <v>504</v>
+      </c>
+      <c r="I38" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="J38" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="K38" s="157" t="s">
+        <v>505</v>
+      </c>
+      <c r="L38" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B39" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C39" s="157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D39" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G39" s="157" t="s">
+        <v>506</v>
+      </c>
+      <c r="H39" s="157" t="s">
+        <v>507</v>
+      </c>
+      <c r="I39" s="157" t="s">
+        <v>508</v>
+      </c>
+      <c r="J39" s="160" t="s">
+        <v>509</v>
+      </c>
+      <c r="K39" s="157"/>
+      <c r="L39" s="157"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B40" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C40" s="157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D40" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G40" s="157" t="s">
+        <v>506</v>
+      </c>
+      <c r="H40" s="157" t="s">
+        <v>510</v>
+      </c>
+      <c r="I40" s="157" t="s">
+        <v>511</v>
+      </c>
+      <c r="J40" s="160" t="s">
+        <v>512</v>
+      </c>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B41" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D41" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G41" s="157" t="s">
+        <v>506</v>
+      </c>
+      <c r="H41" s="157" t="s">
+        <v>513</v>
+      </c>
+      <c r="I41" s="157" t="s">
+        <v>514</v>
+      </c>
+      <c r="J41" s="157" t="s">
+        <v>515</v>
+      </c>
+      <c r="K41" s="157" t="s">
+        <v>516</v>
+      </c>
+      <c r="L41" s="157"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B42" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D42" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G42" s="157" t="s">
+        <v>506</v>
+      </c>
+      <c r="H42" s="157" t="s">
+        <v>517</v>
+      </c>
+      <c r="I42" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="J42" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="K42" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="L42" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C43" s="157" t="s">
+        <v>447</v>
+      </c>
+      <c r="D43" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G43" s="157" t="s">
+        <v>506</v>
+      </c>
+      <c r="H43" s="157" t="s">
+        <v>518</v>
+      </c>
+      <c r="I43" s="157" t="s">
+        <v>519</v>
+      </c>
+      <c r="J43" s="157" t="s">
+        <v>520</v>
+      </c>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="157" t="s">
+        <v>499</v>
+      </c>
+      <c r="B44" s="157" t="s">
+        <v>464</v>
+      </c>
+      <c r="C44" s="157" t="s">
+        <v>500</v>
+      </c>
+      <c r="D44" s="157" t="s">
+        <v>501</v>
+      </c>
+      <c r="E44" s="157" t="s">
+        <v>500</v>
+      </c>
+      <c r="F44" s="157" t="s">
+        <v>502</v>
+      </c>
+      <c r="G44" s="157" t="s">
+        <v>503</v>
+      </c>
+      <c r="H44" s="157" t="s">
+        <v>504</v>
+      </c>
+      <c r="I44" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="J44" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="K44" s="157" t="s">
+        <v>505</v>
+      </c>
+      <c r="L44" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B45" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="C45" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D45" s="157" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G45" s="157" t="s">
+        <v>522</v>
+      </c>
+      <c r="H45" s="157" t="s">
+        <v>523</v>
+      </c>
+      <c r="I45" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="J45" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="K45" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="L45" s="157" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B46" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="C46" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D46" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G46" s="157" t="s">
+        <v>522</v>
+      </c>
+      <c r="H46" s="157" t="s">
+        <v>525</v>
+      </c>
+      <c r="I46" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="J46" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="K46" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="L46" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="B47" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="C47" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D47" s="157" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G47" s="157" t="s">
+        <v>522</v>
+      </c>
+      <c r="H47" s="157" t="s">
+        <v>526</v>
+      </c>
+      <c r="I47" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="J47" s="157" t="s">
+        <v>468</v>
+      </c>
+      <c r="K47" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="L47" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="158" t="s">
+        <v>443</v>
+      </c>
+      <c r="B48" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="C48" s="157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D48" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G48" s="157" t="s">
+        <v>522</v>
+      </c>
+      <c r="H48" s="157" t="s">
+        <v>527</v>
+      </c>
+      <c r="I48" s="157" t="s">
+        <v>528</v>
+      </c>
+      <c r="J48" s="157" t="s">
+        <v>529</v>
+      </c>
+      <c r="K48" s="157" t="s">
+        <v>478</v>
+      </c>
+      <c r="L48" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="159" t="s">
+        <v>445</v>
+      </c>
+      <c r="B49" s="157" t="s">
+        <v>480</v>
+      </c>
+      <c r="C49" s="157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D49" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="157" t="s">
+        <v>530</v>
+      </c>
+      <c r="G49" s="157" t="s">
+        <v>522</v>
+      </c>
+      <c r="H49" s="157" t="s">
+        <v>527</v>
+      </c>
+      <c r="I49" s="157" t="s">
+        <v>531</v>
+      </c>
+      <c r="J49" s="157"/>
+      <c r="K49" s="157" t="s">
+        <v>483</v>
+      </c>
+      <c r="L49" s="157"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="161" t="s">
         <v>456</v>
       </c>
-      <c r="G29" s="153" t="s">
-        <v>457</v>
-      </c>
-      <c r="H29" s="153" t="s">
-        <v>458</v>
-      </c>
-      <c r="I29" s="153" t="s">
-        <v>459</v>
-      </c>
-      <c r="J29" s="153" t="s">
-        <v>460</v>
-      </c>
-      <c r="K29" s="153" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="154" t="s">
-        <v>440</v>
-      </c>
-      <c r="B30" s="154" t="s">
-        <v>440</v>
-      </c>
-      <c r="C30" s="154" t="s">
-        <v>440</v>
-      </c>
-      <c r="D30" s="154" t="s">
+      <c r="B52" s="161" t="s">
+        <v>532</v>
+      </c>
+      <c r="C52" s="161" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="161" t="s">
+        <v>533</v>
+      </c>
+      <c r="E52" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="161" t="s">
+        <v>534</v>
+      </c>
+      <c r="G52" s="161" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="157" t="s">
+        <v>501</v>
+      </c>
+      <c r="B53" s="157" t="s">
+        <v>536</v>
+      </c>
+      <c r="C53" s="157" t="s">
+        <v>500</v>
+      </c>
+      <c r="D53" s="157" t="s">
+        <v>537</v>
+      </c>
+      <c r="E53" s="157" t="s">
+        <v>538</v>
+      </c>
+      <c r="F53" s="157" t="s">
+        <v>539</v>
+      </c>
+      <c r="G53" s="157" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="157" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="E54" s="157" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="157" t="s">
+        <v>542</v>
+      </c>
+      <c r="G54" s="157" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="E55" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="157" t="s">
+        <v>542</v>
+      </c>
+      <c r="G55" s="157" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="157" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="157" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="E56" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="157" t="s">
+        <v>542</v>
+      </c>
+      <c r="G56" s="157" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="157" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="157" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="E57" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="157" t="s">
+        <v>542</v>
+      </c>
+      <c r="G57" s="157" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="157" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="157" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="E58" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="157" t="s">
+        <v>542</v>
+      </c>
+      <c r="G58" s="157" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="157" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="157" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="E59" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="157" t="s">
+        <v>542</v>
+      </c>
+      <c r="G59" s="157" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="E60" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="157" t="s">
+        <v>545</v>
+      </c>
+      <c r="G60" s="157" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="E61" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="157" t="s">
+        <v>545</v>
+      </c>
+      <c r="G61" s="157" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="E62" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="157" t="s">
+        <v>545</v>
+      </c>
+      <c r="G62" s="157" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="E63" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="157" t="s">
+        <v>545</v>
+      </c>
+      <c r="G63" s="157" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="E64" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="157" t="s">
+        <v>545</v>
+      </c>
+      <c r="G64" s="157" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="157" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="157" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="157" t="s">
+        <v>547</v>
+      </c>
+      <c r="E65" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="G65" s="157" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="157" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="157" t="s">
+        <v>547</v>
+      </c>
+      <c r="E66" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="G66" s="157" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="157" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="157" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="157" t="s">
+        <v>547</v>
+      </c>
+      <c r="E67" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="G67" s="157" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" s="157" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="157" t="s">
+        <v>547</v>
+      </c>
+      <c r="E68" s="157" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="G68" s="157" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="161" t="s">
+        <v>533</v>
+      </c>
+      <c r="C71" s="161" t="s">
         <v>462</v>
       </c>
-      <c r="E30" s="154" t="s">
-        <v>463</v>
-      </c>
-      <c r="F30" s="154" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" s="154" t="s">
-        <v>465</v>
-      </c>
-      <c r="H30" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="I30" s="154" t="s">
-        <v>467</v>
-      </c>
-      <c r="J30" s="154" t="s">
-        <v>468</v>
-      </c>
-      <c r="K30" s="154" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="155" t="s">
-        <v>442</v>
-      </c>
-      <c r="B31" s="154" t="s">
-        <v>442</v>
-      </c>
-      <c r="C31" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D31" s="154" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="154" t="s">
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="157" t="s">
+        <v>500</v>
+      </c>
+      <c r="B72" s="157" t="s">
+        <v>537</v>
+      </c>
+      <c r="C72" s="157" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G31" s="154" t="s">
-        <v>471</v>
-      </c>
-      <c r="H31" s="154" t="s">
-        <v>472</v>
-      </c>
-      <c r="I31" s="154" t="s">
-        <v>473</v>
-      </c>
-      <c r="J31" s="154" t="s">
-        <v>474</v>
-      </c>
-      <c r="K31" s="154" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="156" t="s">
-        <v>444</v>
-      </c>
-      <c r="B32" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="C32" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D32" s="154" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="154" t="s">
-        <v>477</v>
-      </c>
-      <c r="G32" s="154" t="s">
-        <v>471</v>
-      </c>
-      <c r="H32" s="154" t="s">
-        <v>472</v>
-      </c>
-      <c r="I32" s="154" t="s">
-        <v>478</v>
-      </c>
-      <c r="J32" s="154"/>
-      <c r="K32" s="154" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B33" s="154" t="s">
-        <v>446</v>
-      </c>
-      <c r="C33" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D33" s="154" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G33" s="154" t="s">
-        <v>471</v>
-      </c>
-      <c r="H33" s="154" t="s">
-        <v>480</v>
-      </c>
-      <c r="I33" s="154" t="s">
-        <v>481</v>
-      </c>
-      <c r="J33" s="157" t="s">
-        <v>482</v>
-      </c>
-      <c r="K33" s="154"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B34" s="154" t="s">
-        <v>446</v>
-      </c>
-      <c r="C34" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D34" s="154" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G34" s="154" t="s">
-        <v>471</v>
-      </c>
-      <c r="H34" s="154" t="s">
-        <v>483</v>
-      </c>
-      <c r="I34" s="154" t="s">
-        <v>484</v>
-      </c>
-      <c r="J34" s="154" t="s">
-        <v>485</v>
-      </c>
-      <c r="K34" s="154" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B35" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="C35" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D35" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G35" s="154" t="s">
-        <v>471</v>
-      </c>
-      <c r="H35" s="154" t="s">
-        <v>487</v>
-      </c>
-      <c r="I35" s="154" t="s">
-        <v>488</v>
-      </c>
-      <c r="J35" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="K35" s="154" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B36" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="C36" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D36" s="154" t="s">
-        <v>234</v>
-      </c>
-      <c r="E36" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G36" s="154" t="s">
-        <v>471</v>
-      </c>
-      <c r="H36" s="154" t="s">
-        <v>489</v>
-      </c>
-      <c r="I36" s="154" t="s">
-        <v>488</v>
-      </c>
-      <c r="J36" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="K36" s="154" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B37" s="154" t="s">
-        <v>446</v>
-      </c>
-      <c r="C37" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D37" s="154" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G37" s="154" t="s">
-        <v>471</v>
-      </c>
-      <c r="H37" s="154" t="s">
-        <v>490</v>
-      </c>
-      <c r="I37" s="154" t="s">
-        <v>491</v>
-      </c>
-      <c r="J37" s="157" t="s">
-        <v>492</v>
-      </c>
-      <c r="K37" s="154"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="154" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="C38" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="D38" s="154" t="s">
-        <v>495</v>
-      </c>
-      <c r="E38" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="F38" s="154" t="s">
-        <v>496</v>
-      </c>
-      <c r="G38" s="154" t="s">
-        <v>497</v>
-      </c>
-      <c r="H38" s="154" t="s">
-        <v>498</v>
-      </c>
-      <c r="I38" s="154" t="s">
-        <v>488</v>
-      </c>
-      <c r="J38" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="K38" s="154" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B39" s="154" t="s">
-        <v>446</v>
-      </c>
-      <c r="C39" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D39" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="154" t="s">
+      <c r="B73" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="C73" s="157"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G39" s="154" t="s">
-        <v>500</v>
-      </c>
-      <c r="H39" s="154" t="s">
-        <v>501</v>
-      </c>
-      <c r="I39" s="154" t="s">
-        <v>502</v>
-      </c>
-      <c r="J39" s="157" t="s">
-        <v>503</v>
-      </c>
-      <c r="K39" s="154"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B40" s="154" t="s">
-        <v>446</v>
-      </c>
-      <c r="C40" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D40" s="154" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G40" s="154" t="s">
-        <v>500</v>
-      </c>
-      <c r="H40" s="154" t="s">
-        <v>504</v>
-      </c>
-      <c r="I40" s="154" t="s">
-        <v>505</v>
-      </c>
-      <c r="J40" s="157" t="s">
-        <v>506</v>
-      </c>
-      <c r="K40" s="154"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B41" s="154" t="s">
-        <v>446</v>
-      </c>
-      <c r="C41" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D41" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G41" s="154" t="s">
-        <v>500</v>
-      </c>
-      <c r="H41" s="154" t="s">
-        <v>507</v>
-      </c>
-      <c r="I41" s="154" t="s">
-        <v>508</v>
-      </c>
-      <c r="J41" s="154" t="s">
-        <v>509</v>
-      </c>
-      <c r="K41" s="154"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B42" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="C42" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="154" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G42" s="154" t="s">
-        <v>500</v>
-      </c>
-      <c r="H42" s="154" t="s">
-        <v>510</v>
-      </c>
-      <c r="I42" s="154" t="s">
-        <v>488</v>
-      </c>
-      <c r="J42" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="K42" s="154" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B43" s="154" t="s">
-        <v>446</v>
-      </c>
-      <c r="C43" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D43" s="154" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G43" s="154" t="s">
-        <v>500</v>
-      </c>
-      <c r="H43" s="154" t="s">
-        <v>511</v>
-      </c>
-      <c r="I43" s="154" t="s">
-        <v>512</v>
-      </c>
-      <c r="J43" s="154" t="s">
-        <v>513</v>
-      </c>
-      <c r="K43" s="154"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="154" t="s">
-        <v>493</v>
-      </c>
-      <c r="B44" s="154" t="s">
-        <v>462</v>
-      </c>
-      <c r="C44" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="D44" s="154" t="s">
-        <v>495</v>
-      </c>
-      <c r="E44" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="F44" s="154" t="s">
-        <v>496</v>
-      </c>
-      <c r="G44" s="154" t="s">
-        <v>497</v>
-      </c>
-      <c r="H44" s="154" t="s">
-        <v>498</v>
-      </c>
-      <c r="I44" s="154" t="s">
-        <v>488</v>
-      </c>
-      <c r="J44" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="K44" s="154" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B45" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="C45" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D45" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="154" t="s">
+      <c r="B74" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="C74" s="157" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G45" s="154" t="s">
-        <v>514</v>
-      </c>
-      <c r="H45" s="154" t="s">
-        <v>515</v>
-      </c>
-      <c r="I45" s="154" t="s">
-        <v>488</v>
-      </c>
-      <c r="J45" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="K45" s="154" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B46" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="C46" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D46" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G46" s="154" t="s">
-        <v>514</v>
-      </c>
-      <c r="H46" s="154" t="s">
-        <v>516</v>
-      </c>
-      <c r="I46" s="154" t="s">
-        <v>488</v>
-      </c>
-      <c r="J46" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="K46" s="154" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="156" t="s">
-        <v>446</v>
-      </c>
-      <c r="B47" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="C47" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D47" s="154" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G47" s="154" t="s">
-        <v>514</v>
-      </c>
-      <c r="H47" s="154" t="s">
-        <v>517</v>
-      </c>
-      <c r="I47" s="154" t="s">
-        <v>488</v>
-      </c>
-      <c r="J47" s="154" t="s">
-        <v>466</v>
-      </c>
-      <c r="K47" s="154" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="155" t="s">
-        <v>442</v>
-      </c>
-      <c r="B48" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="C48" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="D48" s="154" t="s">
-        <v>276</v>
-      </c>
-      <c r="E48" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="G48" s="154" t="s">
-        <v>514</v>
-      </c>
-      <c r="H48" s="154" t="s">
-        <v>518</v>
-      </c>
-      <c r="I48" s="154" t="s">
-        <v>519</v>
-      </c>
-      <c r="J48" s="154" t="s">
-        <v>520</v>
-      </c>
-      <c r="K48" s="154" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="156" t="s">
-        <v>444</v>
-      </c>
-      <c r="B49" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="C49" s="154" t="s">
-        <v>476</v>
-      </c>
-      <c r="D49" s="154" t="s">
-        <v>276</v>
-      </c>
-      <c r="E49" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="154" t="s">
-        <v>521</v>
-      </c>
-      <c r="G49" s="154" t="s">
-        <v>514</v>
-      </c>
-      <c r="H49" s="154" t="s">
-        <v>518</v>
-      </c>
-      <c r="I49" s="154" t="s">
-        <v>522</v>
-      </c>
-      <c r="J49" s="154"/>
-      <c r="K49" s="154" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="153" t="s">
-        <v>455</v>
-      </c>
-      <c r="B52" s="153" t="s">
-        <v>523</v>
-      </c>
-      <c r="C52" s="153" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="153" t="s">
-        <v>524</v>
-      </c>
-      <c r="E52" s="153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="153" t="s">
-        <v>525</v>
-      </c>
-      <c r="G52" s="153" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="154" t="s">
-        <v>495</v>
-      </c>
-      <c r="B53" s="154" t="s">
-        <v>527</v>
-      </c>
-      <c r="C53" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="D53" s="154" t="s">
-        <v>528</v>
-      </c>
-      <c r="E53" s="154" t="s">
-        <v>529</v>
-      </c>
-      <c r="F53" s="154" t="s">
-        <v>530</v>
-      </c>
-      <c r="G53" s="154" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="154" t="s">
-        <v>198</v>
-      </c>
-      <c r="B54" s="154" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="E54" s="154" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="154" t="s">
-        <v>533</v>
-      </c>
-      <c r="G54" s="154" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="154" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="154" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="E55" s="154" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="154" t="s">
-        <v>533</v>
-      </c>
-      <c r="G55" s="154" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="154" t="s">
-        <v>225</v>
-      </c>
-      <c r="B56" s="154" t="s">
-        <v>226</v>
-      </c>
-      <c r="C56" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="E56" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="154" t="s">
-        <v>533</v>
-      </c>
-      <c r="G56" s="154" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="B57" s="154" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="E57" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="154" t="s">
-        <v>533</v>
-      </c>
-      <c r="G57" s="154" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="154" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" s="154" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="E58" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="154" t="s">
-        <v>533</v>
-      </c>
-      <c r="G58" s="154" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="154" t="s">
-        <v>242</v>
-      </c>
-      <c r="B59" s="154" t="s">
-        <v>243</v>
-      </c>
-      <c r="C59" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="E59" s="154" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" s="154" t="s">
-        <v>533</v>
-      </c>
-      <c r="G59" s="154" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="154" t="s">
-        <v>535</v>
-      </c>
-      <c r="E60" s="154" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60" s="154" t="s">
-        <v>536</v>
-      </c>
-      <c r="G60" s="154" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="154" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="154" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="154" t="s">
-        <v>535</v>
-      </c>
-      <c r="E61" s="154" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="154" t="s">
-        <v>536</v>
-      </c>
-      <c r="G61" s="154" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="154" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="154" t="s">
-        <v>535</v>
-      </c>
-      <c r="E62" s="154" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62" s="154" t="s">
-        <v>536</v>
-      </c>
-      <c r="G62" s="154" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="154" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="154" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="154" t="s">
-        <v>535</v>
-      </c>
-      <c r="E63" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="154" t="s">
-        <v>536</v>
-      </c>
-      <c r="G63" s="154" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="154" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" s="154" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="154" t="s">
-        <v>535</v>
-      </c>
-      <c r="E64" s="154" t="s">
-        <v>138</v>
-      </c>
-      <c r="F64" s="154" t="s">
-        <v>536</v>
-      </c>
-      <c r="G64" s="154" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="154" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="154" t="s">
-        <v>538</v>
-      </c>
-      <c r="E65" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" s="154" t="s">
-        <v>539</v>
-      </c>
-      <c r="G65" s="154" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="154" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="154" t="s">
-        <v>538</v>
-      </c>
-      <c r="E66" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="154" t="s">
-        <v>539</v>
-      </c>
-      <c r="G66" s="154" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="154" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="154" t="s">
-        <v>538</v>
-      </c>
-      <c r="E67" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="F67" s="154" t="s">
-        <v>539</v>
-      </c>
-      <c r="G67" s="154" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="154" t="s">
-        <v>276</v>
-      </c>
-      <c r="B68" s="154" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="154" t="s">
-        <v>538</v>
-      </c>
-      <c r="E68" s="154" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68" s="154" t="s">
-        <v>539</v>
-      </c>
-      <c r="G68" s="154" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="153" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="153" t="s">
-        <v>524</v>
-      </c>
-      <c r="C71" s="153" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="154" t="s">
-        <v>494</v>
-      </c>
-      <c r="B72" s="154" t="s">
-        <v>528</v>
-      </c>
-      <c r="C72" s="154" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="C73" s="154"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="154" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="154" t="s">
-        <v>535</v>
-      </c>
-      <c r="C74" s="154" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="154" t="s">
-        <v>538</v>
-      </c>
-      <c r="C75" s="154"/>
+      <c r="B75" s="157" t="s">
+        <v>547</v>
+      </c>
+      <c r="C75" s="157"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J33" r:id="rId1" xr:uid="{B882D009-CD91-43E5-9FAC-82ED9CA176AE}"/>
-    <hyperlink ref="J37" r:id="rId2" xr:uid="{F20FA06F-97EE-462B-AEC5-011FEC804C93}"/>
-    <hyperlink ref="J39" r:id="rId3" xr:uid="{E686CD46-07F5-44E2-A090-B1056A06C009}"/>
-    <hyperlink ref="J40" r:id="rId4" xr:uid="{F3F0899B-4398-4367-951D-3ACA50189422}"/>
+    <hyperlink ref="J33" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J37" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J39" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="J40" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16433,7 +16529,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" customWidth="1"/>
@@ -16441,7 +16537,7 @@
     <col min="5" max="5" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -16449,16 +16545,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="180.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -16466,14 +16562,14 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -16481,13 +16577,13 @@
         <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="D3" s="10">
         <v>45736</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -16495,10 +16591,10 @@
         <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
@@ -16506,10 +16602,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -16523,18 +16619,18 @@
         <v>45729</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>74</v>
       </c>
@@ -16542,13 +16638,13 @@
         <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D8" s="10">
         <v>45726</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>128</v>
       </c>
@@ -16556,24 +16652,24 @@
         <v>129</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D9" s="10">
         <v>45734</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -16581,32 +16677,32 @@
         <v>92</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>113</v>
       </c>
@@ -16614,43 +16710,43 @@
         <v>114</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -16662,12 +16758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C95ED299D436A4EB4AA5BF77E5398DD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="647be6c57b5cc831ea977fc2244f1ced">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e5bb73b-09b5-4267-86ae-7d74de1de49f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43f0ca3b1926d159eec75d3a54ef83c7" ns2:_="">
     <xsd:import namespace="8e5bb73b-09b5-4267-86ae-7d74de1de49f"/>
@@ -16805,7 +16895,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -16814,44 +16904,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86FFE324-BF42-4680-8C1E-F364A315779B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8e5bb73b-09b5-4267-86ae-7d74de1de49f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6346DB8F-6D56-44B8-B57F-288107FFD494}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C30029-85E6-4903-AF78-29AD1C1DDD31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8e5bb73b-09b5-4267-86ae-7d74de1de49f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DF42B8-B1B3-4B53-BBAE-2294611F612F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCEFC188-C504-4F4D-8E14-7072F652074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8BA2918-51C8-42CA-9E4B-23263C2D06B0}"/>
 </file>